--- a/results/I3_N5_M2_T45_C100_DepCentral_s0_P3_res.xlsx
+++ b/results/I3_N5_M2_T45_C100_DepCentral_s0_P3_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2835.162412917392</v>
+        <v>1815.305952697247</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.009000062942504883</v>
+        <v>0.004000186920166016</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>19.25725746793464</v>
+        <v>17.05768396753712</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11.09518139179913</v>
+        <v>11.4813936996509</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.870336841250731</v>
+        <v>3.729662429360495</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2581.850000000005</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>239.28</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -598,7 +598,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,10 +617,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -628,67 +628,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>3</v>
-      </c>
-      <c r="B7" t="n">
-        <v>3</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>3</v>
-      </c>
-      <c r="B8" t="n">
-        <v>5</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>4</v>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
-      </c>
-      <c r="B10" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>4</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -733,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -766,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -890,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -912,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -962,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>33.77588400245558</v>
+        <v>33.88634790002131</v>
       </c>
     </row>
     <row r="4">
@@ -970,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>37.66223190247689</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5">
@@ -978,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>30</v>
+        <v>38.23758910225315</v>
       </c>
     </row>
     <row r="6">
@@ -986,7 +931,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>32.37739353073907</v>
+        <v>40.61498263299222</v>
       </c>
     </row>
     <row r="7">
@@ -1002,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>41.49915775529188</v>
+        <v>43.03593285965943</v>
       </c>
     </row>
     <row r="9">
@@ -1010,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>34.79834375740628</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1024,7 +969,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1059,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1073,7 +1018,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1087,7 +1032,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>3</v>
@@ -1101,7 +1046,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
@@ -1115,7 +1060,7 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>5</v>
@@ -1129,10 +1074,10 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -1143,10 +1088,10 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>1</v>
@@ -1157,10 +1102,10 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -1168,13 +1113,13 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -1182,13 +1127,13 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -1216,7 +1161,7 @@
         <v>4</v>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -1224,13 +1169,13 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>1</v>
@@ -1241,10 +1186,10 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
         <v>1</v>
@@ -1255,10 +1200,10 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -1269,10 +1214,10 @@
         <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -1283,12 +1228,26 @@
         <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>6</v>
+      </c>
+      <c r="C19" t="n">
+        <v>5</v>
+      </c>
+      <c r="D19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1391,7 +1350,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>129.5550000000004</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8">
@@ -1402,7 +1361,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>137.4900000000004</v>
+        <v>175</v>
       </c>
     </row>
     <row r="9">
@@ -1413,7 +1372,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>141.4600000000004</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
@@ -1424,7 +1383,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>142.9700000000004</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
@@ -1435,7 +1394,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>140.1100000000004</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1405,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>240.9550000000012</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13">
@@ -1457,7 +1416,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>259.5550000000012</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14">
@@ -1468,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>258.1750000000013</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15">
@@ -1479,7 +1438,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>268.1800000000012</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16">
@@ -1490,7 +1449,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>262.7400000000012</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17">
@@ -1501,7 +1460,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>99.54499999999936</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18">
@@ -1512,7 +1471,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>92.51499999999935</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19">
@@ -1523,7 +1482,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>100.0699999999993</v>
+        <v>226</v>
       </c>
     </row>
     <row r="20">
@@ -1534,7 +1493,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>90.09499999999935</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21">
@@ -1545,7 +1504,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>102.7799999999993</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
@@ -1556,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>208.0599999999994</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23">
@@ -1567,7 +1526,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>189.4349999999993</v>
+        <v>263</v>
       </c>
     </row>
     <row r="24">
@@ -1578,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>206.7149999999993</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25">
@@ -1589,7 +1548,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>193.8399999999993</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26">
@@ -1600,7 +1559,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>203.2699999999994</v>
+        <v>260</v>
       </c>
     </row>
     <row r="27">
@@ -1611,7 +1570,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28">
@@ -1622,7 +1581,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29">
@@ -1633,7 +1592,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>36</v>
       </c>
     </row>
     <row r="30">
@@ -1644,7 +1603,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>37</v>
       </c>
     </row>
     <row r="31">
@@ -1655,7 +1614,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>35</v>
       </c>
     </row>
     <row r="32">
@@ -1666,7 +1625,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>240.9550000000012</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
@@ -1677,7 +1636,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>259.5550000000012</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34">
@@ -1688,7 +1647,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>258.1750000000013</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35">
@@ -1699,7 +1658,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>268.1800000000012</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36">
@@ -1710,7 +1669,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>262.7400000000012</v>
+        <v>260</v>
       </c>
     </row>
     <row r="37">
@@ -1721,7 +1680,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>208.0599999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1732,7 +1691,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>189.4349999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1743,7 +1702,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>206.7149999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1754,7 +1713,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>193.8399999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1765,7 +1724,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>203.2699999999994</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1812,7 +1771,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>140.9550000000012</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -1823,7 +1782,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>159.5550000000012</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
@@ -1834,7 +1793,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>158.1750000000013</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5">
@@ -1845,7 +1804,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>168.1800000000012</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6">
@@ -1856,7 +1815,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>162.7400000000012</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
@@ -1867,7 +1826,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>108.0599999999994</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1878,7 +1837,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>89.43499999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1889,7 +1848,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>106.7149999999993</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1900,7 +1859,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>93.83999999999935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1911,7 +1870,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>103.2699999999994</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2178,7 +2137,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2189,7 +2148,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2200,7 +2159,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2211,7 +2170,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2222,7 +2181,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2236,7 +2195,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,7 +2280,7 @@
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -2332,7 +2291,7 @@
         <v>2</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -2343,7 +2302,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -2351,10 +2310,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -2362,10 +2321,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -2387,7 +2346,7 @@
         <v>3</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -2395,10 +2354,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B14" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -2409,7 +2368,7 @@
         <v>4</v>
       </c>
       <c r="B15" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -2420,7 +2379,7 @@
         <v>4</v>
       </c>
       <c r="B16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -2431,7 +2390,7 @@
         <v>4</v>
       </c>
       <c r="B17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -2442,9 +2401,20 @@
         <v>4</v>
       </c>
       <c r="B18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>4</v>
+      </c>
+      <c r="B19" t="n">
+        <v>5</v>
+      </c>
+      <c r="C19" t="n">
         <v>1</v>
       </c>
     </row>
